--- a/param_config/param_data_renpy.xlsx
+++ b/param_config/param_data_renpy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】\param_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA72B333-A613-48E6-B403-DCC447B1293F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E28BA-EF42-42FC-B50D-AA46BCAC3FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="Movie" sheetId="10" r:id="rId9"/>
     <sheet name="Music" sheetId="8" r:id="rId10"/>
     <sheet name="Sound" sheetId="9" r:id="rId11"/>
-    <sheet name="基础参数模板" sheetId="4" r:id="rId12"/>
+    <sheet name="Window" sheetId="13" r:id="rId12"/>
+    <sheet name="基础参数模板" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>master</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +166,18 @@
   </si>
   <si>
     <t>stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示和隐藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966183FE-893C-4CE5-91A9-7B2DDB5030D5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -628,10 +641,54 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88F63F-8C77-4EB4-9A0D-787BFC3AC2C7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CD06AC-723F-4A84-9034-732CCFF1C997}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/param_config/param_data_renpy.xlsx
+++ b/param_config/param_data_renpy.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E28BA-EF42-42FC-B50D-AA46BCAC3FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6170A-FB85-4D32-A932-0F4D4B3A64B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer" sheetId="1" r:id="rId1"/>
     <sheet name="Transform" sheetId="2" r:id="rId2"/>
     <sheet name="Transition" sheetId="3" r:id="rId3"/>
     <sheet name="Speaker" sheetId="5" r:id="rId4"/>
-    <sheet name="Figure" sheetId="11" r:id="rId5"/>
-    <sheet name="Animation" sheetId="12" r:id="rId6"/>
-    <sheet name="Background" sheetId="6" r:id="rId7"/>
-    <sheet name="Event" sheetId="7" r:id="rId8"/>
-    <sheet name="Movie" sheetId="10" r:id="rId9"/>
-    <sheet name="Music" sheetId="8" r:id="rId10"/>
-    <sheet name="Sound" sheetId="9" r:id="rId11"/>
-    <sheet name="Window" sheetId="13" r:id="rId12"/>
-    <sheet name="基础参数模板" sheetId="4" r:id="rId13"/>
+    <sheet name="Character" sheetId="11" r:id="rId5"/>
+    <sheet name="Varient" sheetId="15" r:id="rId6"/>
+    <sheet name="Animation" sheetId="12" r:id="rId7"/>
+    <sheet name="Background" sheetId="6" r:id="rId8"/>
+    <sheet name="Event" sheetId="7" r:id="rId9"/>
+    <sheet name="Movie" sheetId="10" r:id="rId10"/>
+    <sheet name="Music" sheetId="8" r:id="rId11"/>
+    <sheet name="Ambience" sheetId="14" r:id="rId12"/>
+    <sheet name="Sound" sheetId="9" r:id="rId13"/>
+    <sheet name="Window" sheetId="13" r:id="rId14"/>
+    <sheet name="基础参数模板" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>master</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +180,18 @@
   </si>
   <si>
     <t>显示和隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None # 无转场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +220,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +259,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,6 +590,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2FB37-B05C-42DD-AD48-6F5711AA0F97}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0EA6C-94B5-4B28-9D79-AE5F33D06CF7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -603,7 +655,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACBE5A-FAED-480E-A890-20FE9FA50E67}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966183FE-893C-4CE5-91A9-7B2DDB5030D5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -640,11 +721,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88F63F-8C77-4EB4-9A0D-787BFC3AC2C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -684,7 +765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CD06AC-723F-4A84-9034-732CCFF1C997}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -768,10 +849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -792,45 +873,56 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -899,6 +991,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE69BF-A36D-4600-8BBD-F190242D61E1}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58EBDF9-D3A0-47BB-830B-8DFDC52004A0}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -927,7 +1048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C90C90F-14F7-48DC-A223-3A21F823BBD9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -964,7 +1085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F9688-485C-4089-A924-659F7B17ED40}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -991,33 +1112,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2FB37-B05C-42DD-AD48-6F5711AA0F97}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/param_config/param_data_renpy.xlsx
+++ b/param_config/param_data_renpy.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C6170A-FB85-4D32-A932-0F4D4B3A64B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4EA1A3-72AE-4C2C-8A22-ADCFA0237241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Layer" sheetId="1" r:id="rId1"/>
-    <sheet name="Transform" sheetId="2" r:id="rId2"/>
-    <sheet name="Transition" sheetId="3" r:id="rId3"/>
-    <sheet name="Speaker" sheetId="5" r:id="rId4"/>
-    <sheet name="Character" sheetId="11" r:id="rId5"/>
-    <sheet name="Varient" sheetId="15" r:id="rId6"/>
-    <sheet name="Animation" sheetId="12" r:id="rId7"/>
-    <sheet name="Background" sheetId="6" r:id="rId8"/>
-    <sheet name="Event" sheetId="7" r:id="rId9"/>
-    <sheet name="Movie" sheetId="10" r:id="rId10"/>
-    <sheet name="Music" sheetId="8" r:id="rId11"/>
-    <sheet name="Ambience" sheetId="14" r:id="rId12"/>
-    <sheet name="Sound" sheetId="9" r:id="rId13"/>
-    <sheet name="Window" sheetId="13" r:id="rId14"/>
-    <sheet name="基础参数模板" sheetId="4" r:id="rId15"/>
+    <sheet name="Command" sheetId="16" r:id="rId1"/>
+    <sheet name="Layer" sheetId="1" r:id="rId2"/>
+    <sheet name="Transform" sheetId="2" r:id="rId3"/>
+    <sheet name="Transition" sheetId="3" r:id="rId4"/>
+    <sheet name="Speaker" sheetId="5" r:id="rId5"/>
+    <sheet name="Character" sheetId="11" r:id="rId6"/>
+    <sheet name="Sprite" sheetId="17" r:id="rId7"/>
+    <sheet name="Varient" sheetId="15" r:id="rId8"/>
+    <sheet name="Animation" sheetId="12" r:id="rId9"/>
+    <sheet name="Background" sheetId="6" r:id="rId10"/>
+    <sheet name="Event" sheetId="7" r:id="rId11"/>
+    <sheet name="Movie" sheetId="10" r:id="rId12"/>
+    <sheet name="Music" sheetId="8" r:id="rId13"/>
+    <sheet name="Ambience" sheetId="14" r:id="rId14"/>
+    <sheet name="Sound" sheetId="9" r:id="rId15"/>
+    <sheet name="Window" sheetId="13" r:id="rId16"/>
+    <sheet name="基础参数模板" sheetId="4" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>master</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +194,50 @@
   </si>
   <si>
     <t>None # 无转场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_sprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,6 +270,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -529,6 +576,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE878D2C-D55B-43FC-94A3-38F8F06D95DD}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C90C90F-14F7-48DC-A223-3A21F823BBD9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F9688-485C-4089-A924-659F7B17ED40}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2FB37-B05C-42DD-AD48-6F5711AA0F97}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0EA6C-94B5-4B28-9D79-AE5F33D06CF7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACBE5A-FAED-480E-A890-20FE9FA50E67}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966183FE-893C-4CE5-91A9-7B2DDB5030D5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88F63F-8C77-4EB4-9A0D-787BFC3AC2C7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CD06AC-723F-4A84-9034-732CCFF1C997}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -589,212 +968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2FB37-B05C-42DD-AD48-6F5711AA0F97}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0EA6C-94B5-4B28-9D79-AE5F33D06CF7}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACBE5A-FAED-480E-A890-20FE9FA50E67}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966183FE-893C-4CE5-91A9-7B2DDB5030D5}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88F63F-8C77-4EB4-9A0D-787BFC3AC2C7}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CD06AC-723F-4A84-9034-732CCFF1C997}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -847,7 +1021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -932,70 +1106,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5E86-0F35-431D-B760-B491C7011A1E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B366D178-7CDC-4708-83DB-8F05B13E7EF6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F873D92-1EFE-4746-B5A3-015962221CAC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE69BF-A36D-4600-8BBD-F190242D61E1}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58EBDF9-D3A0-47BB-830B-8DFDC52004A0}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1046,70 +1273,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C90C90F-14F7-48DC-A223-3A21F823BBD9}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F9688-485C-4089-A924-659F7B17ED40}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/param_config/param_data_renpy.xlsx
+++ b/param_config/param_data_renpy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4EA1A3-72AE-4C2C-8A22-ADCFA0237241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D67A8-CF87-4432-8373-7D7D625DBE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="16" r:id="rId1"/>
@@ -21,15 +21,17 @@
     <sheet name="Character" sheetId="11" r:id="rId6"/>
     <sheet name="Sprite" sheetId="17" r:id="rId7"/>
     <sheet name="Varient" sheetId="15" r:id="rId8"/>
-    <sheet name="Animation" sheetId="12" r:id="rId9"/>
-    <sheet name="Background" sheetId="6" r:id="rId10"/>
-    <sheet name="Event" sheetId="7" r:id="rId11"/>
-    <sheet name="Movie" sheetId="10" r:id="rId12"/>
-    <sheet name="Music" sheetId="8" r:id="rId13"/>
-    <sheet name="Ambience" sheetId="14" r:id="rId14"/>
-    <sheet name="Sound" sheetId="9" r:id="rId15"/>
-    <sheet name="Window" sheetId="13" r:id="rId16"/>
-    <sheet name="基础参数模板" sheetId="4" r:id="rId17"/>
+    <sheet name="ATLtype" sheetId="18" r:id="rId9"/>
+    <sheet name="Warp" sheetId="19" r:id="rId10"/>
+    <sheet name="Animation" sheetId="12" r:id="rId11"/>
+    <sheet name="Background" sheetId="6" r:id="rId12"/>
+    <sheet name="Event" sheetId="7" r:id="rId13"/>
+    <sheet name="Movie" sheetId="10" r:id="rId14"/>
+    <sheet name="Music" sheetId="8" r:id="rId15"/>
+    <sheet name="Ambience" sheetId="14" r:id="rId16"/>
+    <sheet name="Sound" sheetId="9" r:id="rId17"/>
+    <sheet name="Window" sheetId="13" r:id="rId18"/>
+    <sheet name="基础参数模板" sheetId="4" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>master</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +240,54 @@
   </si>
   <si>
     <t>the_sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easeout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,6 +687,88 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7FAF2-D815-4AEE-98A8-BF63C30F7270}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58EBDF9-D3A0-47BB-830B-8DFDC52004A0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C90C90F-14F7-48DC-A223-3A21F823BBD9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -673,7 +805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F9688-485C-4089-A924-659F7B17ED40}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -702,7 +834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2FB37-B05C-42DD-AD48-6F5711AA0F97}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -731,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0EA6C-94B5-4B28-9D79-AE5F33D06CF7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -768,7 +900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACBE5A-FAED-480E-A890-20FE9FA50E67}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -797,7 +929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966183FE-893C-4CE5-91A9-7B2DDB5030D5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -834,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88F63F-8C77-4EB4-9A0D-787BFC3AC2C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -878,7 +1010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CD06AC-723F-4A84-9034-732CCFF1C997}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1184,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F873D92-1EFE-4746-B5A3-015962221CAC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1221,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE69BF-A36D-4600-8BBD-F190242D61E1}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1247,25 +1379,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58EBDF9-D3A0-47BB-830B-8DFDC52004A0}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A408B64A-B708-430C-BB8C-9D370F261E67}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/param_config/param_data_renpy.xlsx
+++ b/param_config/param_data_renpy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\galgamedevtools\scenario_tool\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D67A8-CF87-4432-8373-7D7D625DBE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F946EB7-2743-4917-887D-9FBF6F6E318F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="16" r:id="rId1"/>
@@ -34,17 +34,6 @@
     <sheet name="基础参数模板" sheetId="4" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -633,9 +622,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -690,13 +679,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7FAF2-D815-4AEE-98A8-BF63C30F7270}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -747,9 +736,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -776,9 +765,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -813,9 +802,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -842,9 +831,9 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -871,9 +860,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -908,9 +897,9 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -937,9 +926,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -974,9 +963,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1018,9 +1007,9 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1043,13 +1032,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1096,7 +1085,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1108,9 +1097,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1161,9 +1150,9 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1246,9 +1235,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1283,9 +1272,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1320,9 +1309,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1357,9 +1346,9 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1386,9 +1375,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="40.6328125" style="1" customWidth="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/param_config/param_data_renpy.xlsx
+++ b/param_config/param_data_renpy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DB856-A10C-4A89-A65D-CFB6C86683CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F361F-F5F1-4D32-86F0-5B5CF3789950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>

--- a/param_config/param_data_renpy.xlsx
+++ b/param_config/param_data_renpy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\param_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】dev\param_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F361F-F5F1-4D32-86F0-5B5CF3789950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD303094-E6C7-456E-B22C-9D3A07F8A70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="16" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Transform" sheetId="2" r:id="rId3"/>
     <sheet name="Transition" sheetId="3" r:id="rId4"/>
     <sheet name="Camera" sheetId="20" r:id="rId5"/>
-    <sheet name="Speaker" sheetId="5" r:id="rId6"/>
+    <sheet name="Name" sheetId="5" r:id="rId6"/>
     <sheet name="Character" sheetId="11" r:id="rId7"/>
     <sheet name="Sprite" sheetId="17" r:id="rId8"/>
     <sheet name="Varient" sheetId="15" r:id="rId9"/>
@@ -1399,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938A5E86-0F35-431D-B760-B491C7011A1E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
